--- a/medicine/Enfance/Olivier_de_Solminihac/Olivier_de_Solminihac.xlsx
+++ b/medicine/Enfance/Olivier_de_Solminihac/Olivier_de_Solminihac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier de Solminihac, né en 1976 à Lille, est un écrivain français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est cofondateur et directeur de la publication de la revue Bottom (1999-2000), et a également publié une dizaine de livres pour la jeunesse à l'École des loisirs et un recueil de poésie, Les Royaumes d'Espagne, en 2001.
 </t>
@@ -542,69 +556,107 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Royaumes d’Espagne, Chartres, France, Éditions Caedere, coll. « Pas à pas », 2001, 95 p.  (ISBN 2-914192-11-8)
 Partir, Paris, Éditions de l’Olivier, 2002, 187 p.  (ISBN 2-87929-348-0)
 Descendre dans le ciel, Paris, Éditions de l’Olivier, 2004, 87 p.  (ISBN 2-87929-422-3)
 Sentinelles sans bataillon, avec Patrice Robin, Lille-Wazemmes, France, Éditions Nuit myrtide, coll. « itinérances », 2008, 38 p.  (ISBN 978-2-913192-70-6)
-Nous n’avons pas d’endroit où vivre, Paris, Éditions de l’Olivier, 2009, 228 p.  (ISBN 978-2-87929-633-3)[1]
-Un rideau d’arbres, avec Richard Baron, La Madeleine, France, Éditions Light motiv, 2012, 136 p.  (ISBN 978-2-9537908-2-5)[2]
+Nous n’avons pas d’endroit où vivre, Paris, Éditions de l’Olivier, 2009, 228 p.  (ISBN 978-2-87929-633-3)
+Un rideau d’arbres, avec Richard Baron, La Madeleine, France, Éditions Light motiv, 2012, 136 p.  (ISBN 978-2-9537908-2-5)
 L’Homme au fond, Paris, Éditions de l’Olivier, 2015, 144 p.  (ISBN 978-2-8236-0378-1)
 Écrire une histoire, Lille, La Contre Allée, coll. « Les Périphéries », 2015, 59 p.
 La Traversée des murs, avec Eric Le Brun et Yves Morfouace, La Madeleine, Light Motiv, 2016, 110 p.
-Far North, Bourbourg, CIAC, 2019, 64 p.
-Littérature jeunesse
-C’est quoi mort ?, ill. d’Isabelle Bonameau, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2003, 39 p.  (ISBN 2-211-07044-2)
+Far North, Bourbourg, CIAC, 2019, 64 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_de_Solminihac</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_de_Solminihac</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C’est quoi mort ?, ill. d’Isabelle Bonameau, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2003, 39 p.  (ISBN 2-211-07044-2)
 Pas une fée, ill. d’Isabelle Bonameau, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2004, 54 p.  (ISBN 2-211-07309-3)
 Nom de nom, ill. d’Isabelle Bonameau, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2004, 38 p.  (ISBN 2-211-07558-4)
 Debout la nuit, ill. d’Isabelle Bonameau, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2005, 53 p.  (ISBN 2-211-07820-6)
-Le Peuple doudou, ill. d’Audrey Poussier, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2006, 52 p.  (ISBN 2-211-082-68-8)[3]
+Le Peuple doudou, ill. d’Audrey Poussier, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2006, 52 p.  (ISBN 2-211-082-68-8)
 L’Amour, l’Amour, Paris, Éditions l’École des Loisirs, coll. « Neuf », 2006, 63 p.  (ISBN 2-211-08252-1)
 Comment devenir indien, Paris, Éditions l’École des Loisirs, coll. « Neuf », 2008, 70 p.  (ISBN 978-2-211-08773-5)
 Ma pomme, ill. de Muriel Kerba, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2008, 79 p.  (ISBN 978-2-211-09042-1)
 Le Bâton, Paris, ill. de Barroux, Éditions Didier Jeunesse, 2009, 25 p.  (ISBN 978-2-278-06177-8)
 Le Chevalier d’eau, ill. de Marie de Salle, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2010, 77 p.  (ISBN 978-2-211-20108-7)
 Dormir avec une fille, ill. de Pascal Lemaître, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2012, 52 p.  (ISBN 978-2-211-20924-3)
-Le Dragon dans les dunes, ill. de Claire Braud, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2013, 102 p.  (ISBN 978-2-211-21259-5)[4]
-La Célèbre Marilyn, Paris, Éditions l’École des Loisirs, coll. « Neuf », 2013, 70 p.  (ISBN 978-2-211-21541-1)[5]
+Le Dragon dans les dunes, ill. de Claire Braud, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2013, 102 p.  (ISBN 978-2-211-21259-5)
+La Célèbre Marilyn, Paris, Éditions l’École des Loisirs, coll. « Neuf », 2013, 70 p.  (ISBN 978-2-211-21541-1)
 J'ai peur de savoir lire, ill. de Juliette Baily, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2015, 71 p.
 Le Bateau de fortune, ill. de Stéphane Poulin, Paris, Sabacane, 2015, 26 p.
 Les Mûres, ill. de Stéphane Poulin, Paris, Sabacane, 2017, 32 p.
-À l'avenir[6], ill. de Junko Nakamura, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2017, 48 p.
+À l'avenir, ill. de Junko Nakamura, Paris, Éditions l’École des Loisirs, coll. « Mouche », 2017, 48 p.
 La Rivière, ill. de Stéphane Poulin, Paris, Sarbacane, 2018, 26 p.
 Les Étrangers, avec Éric Pessan, Paris, L'Ecole des loisirs, « Medium+ », 2018, 128 p..
 Teenage Riot, avec Éric Pessan, Paris, L'Ecole des loisirs, « Medium+ », 2021, 278 p.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Olivier_de_Solminihac</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olivier_de_Solminihac</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[7] en 2024 : le roman jeunesse Les Étrangers (2018) écrit avec Éric Pessan.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 : le roman jeunesse Les Étrangers (2018) écrit avec Éric Pessan.
 </t>
         </is>
       </c>
